--- a/data/trans_bre/P1409-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Dificultad-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.05391648987865</v>
+        <v>-0.889583748601024</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5406832395220267</v>
+        <v>0.605629265976127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02005980560426765</v>
+        <v>0.06638875408510937</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3218414972267422</v>
+        <v>-0.2905857959867997</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1285868423570862</v>
+        <v>0.1664165404085662</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03321233393546241</v>
+        <v>-0.007136154211060044</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.994771716033402</v>
+        <v>1.964078937554309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.772053520071704</v>
+        <v>3.899997725042232</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.339333351437536</v>
+        <v>5.58796012545658</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.9633192394383455</v>
+        <v>1.031333436527242</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.944969064058775</v>
+        <v>1.946153036382008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.25747110197524</v>
+        <v>1.289838374326632</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>2.301403217061464</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1369301750531245</v>
+        <v>0.1369301750531231</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1153564419291847</v>
@@ -709,7 +709,7 @@
         <v>1.144174802014208</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03631269572196031</v>
+        <v>0.03631269572195994</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.220199936224139</v>
+        <v>-1.003131573699986</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6516200927345003</v>
+        <v>0.9348149716884241</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.788837685039009</v>
+        <v>-1.629493204844449</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4229904206695389</v>
+        <v>-0.3762238079849274</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2037834498770282</v>
+        <v>0.3260417574388336</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3446236875040297</v>
+        <v>-0.3449110094523649</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.547953018649294</v>
+        <v>1.493505792252625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.983291707602382</v>
+        <v>3.912124543768494</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.859246083173859</v>
+        <v>1.647487680016764</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.216181269890533</v>
+        <v>1.03185389142697</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.931719604714807</v>
+        <v>3.032005336143303</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6499132794806398</v>
+        <v>0.6075269178638665</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1604274621452288</v>
+        <v>0.2705492292596408</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9373675637802203</v>
+        <v>-1.1388281865543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.7877825120651991</v>
+        <v>-0.7723391087167025</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.03927854432291514</v>
+        <v>0.01576834963066899</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3171031130044674</v>
+        <v>-0.3804127727075007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1811245557488512</v>
+        <v>-0.1645960504440868</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.140787293148769</v>
+        <v>2.937704718832777</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.216019309872414</v>
+        <v>2.017806818747057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.715327638068751</v>
+        <v>2.720368085918534</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.921247192795286</v>
+        <v>3.590758627233468</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.530180891484951</v>
+        <v>1.237726830299553</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.060062699787367</v>
+        <v>1.119562687899584</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-0.8050444979779081</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0294162486678004</v>
+        <v>0.0294162486678011</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.245841452931558</v>
@@ -873,7 +873,7 @@
         <v>-0.2307548897012349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008096554001917829</v>
+        <v>0.00809655400191802</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.2119676110969066</v>
+        <v>-0.2391906831533225</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.018086520260638</v>
+        <v>-3.092104354529333</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.222750016755891</v>
+        <v>-2.355145561696657</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2234668013621113</v>
+        <v>-0.2426908845265459</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6623839534669769</v>
+        <v>-0.6567679252862044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4186683835371231</v>
+        <v>-0.4415571787067364</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.320049552596945</v>
+        <v>3.324336320148157</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.334472586070099</v>
+        <v>1.24456399014108</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.779180546554025</v>
+        <v>1.804752437434249</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>6.407457107397791</v>
+        <v>6.659198504365431</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.644268273499741</v>
+        <v>0.5745527977671092</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8080048439439838</v>
+        <v>0.7965919157276697</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.02182949323208808</v>
+        <v>0.01576862978492466</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5987736174822085</v>
+        <v>0.5080810540418996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.1648388557188059</v>
+        <v>-0.04084171447966014</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.0127247104261911</v>
+        <v>-0.005369668959951224</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2014296454461394</v>
+        <v>0.1766519704039811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03721288773417344</v>
+        <v>-0.00939786206738108</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.55980605651213</v>
+        <v>1.44247980208659</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.412300493271525</v>
+        <v>2.242426179381766</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.876918060081415</v>
+        <v>1.957160937678411</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.9937702264179359</v>
+        <v>0.8783335358277956</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.13309222534528</v>
+        <v>1.076489789930057</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5662399129329226</v>
+        <v>0.6127375291286355</v>
       </c>
     </row>
     <row r="19">
